--- a/data/industrial.xlsx
+++ b/data/industrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Desktop\앱개발\자격증공부앱\github_setup\safety-exam-ai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594BFC4-B7E3-4B92-A6AF-1B2E985CEB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF969D56-6F20-4B37-8B54-2A54FC51A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EE38B42-8A09-4E13-9D85-6092757F3117}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="1819">
   <si>
     <t>산업 1과목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5499,10 +5499,6 @@
   </si>
   <si>
     <t xml:space="preserve">  text: "폭발 위험 공간에서 사용하는 전동공구는?",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5887,10 +5883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9575299B-0AB8-4BCD-812D-37C8885739D6}">
-  <dimension ref="A1:A6007"/>
+  <dimension ref="A1:A6005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5979" workbookViewId="0">
-      <selection activeCell="A6008" sqref="A6008"/>
+      <selection activeCell="A6007" sqref="A6007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32925,11 +32921,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6007" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6007" t="s">
-        <v>1819</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/industrial.xlsx
+++ b/data/industrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C91DA0-9044-44FA-960E-575A76D3A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C581E764-BB70-4DD5-B52E-487858263EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8188,7 +8188,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>직무기술서.</t>
+    <t>직무기술서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8564,7 +8564,7 @@
   <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data/industrial.xlsx
+++ b/data/industrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C581E764-BB70-4DD5-B52E-487858263EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259DECB-8C3A-4EA7-8D2C-8AF22AFC6215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8188,7 +8188,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>직무기술서</t>
+    <t>직무기술서.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8564,7 +8564,7 @@
   <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
